--- a/Projects/GoodChar/GoodChar APIs.xlsx
+++ b/Projects/GoodChar/GoodChar APIs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10203"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rishi/Documents/personal/Initatives(P)/BlockChain4All/D'Centrum/Meetup/Hyperledger Meetups/Ideas&amp;Execution/Good Charity/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4066ECE6-490E-0140-A1EF-9B6E8F6D6D14}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20152D76-3B26-EF48-8BC7-7BE7C2C24F9D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16480" xr2:uid="{2557EC43-517C-6E4D-9FD7-84BDBC8F0353}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="57">
   <si>
     <t>HTTP Method</t>
   </si>
@@ -153,9 +153,6 @@
     <t>Only the lead volunteer closes the DonationCamp</t>
   </si>
   <si>
-    <t>listProject</t>
-  </si>
-  <si>
     <t>listCauses</t>
   </si>
   <si>
@@ -199,6 +196,12 @@
   </si>
   <si>
     <t>requestHelp</t>
+  </si>
+  <si>
+    <t>listVolunteers</t>
+  </si>
+  <si>
+    <t>listProjects</t>
   </si>
 </sst>
 </file>
@@ -565,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C54651-09EA-6043-91C4-190438746BE6}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -615,7 +618,7 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -651,12 +654,12 @@
         <v>13</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
@@ -665,12 +668,12 @@
         <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
         <v>26</v>
@@ -679,34 +682,37 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E9" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>5</v>
@@ -717,10 +723,10 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>53</v>
+        <v>15</v>
       </c>
       <c r="C12" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D12" t="s">
         <v>12</v>
@@ -728,34 +734,34 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
         <v>16</v>
       </c>
-      <c r="C13" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="B15" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="C16" t="s">
         <v>5</v>
@@ -766,10 +772,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="D17" t="s">
         <v>12</v>
@@ -777,7 +783,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s">
         <v>10</v>
@@ -788,7 +794,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
         <v>10</v>
@@ -799,7 +805,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
         <v>10</v>
@@ -810,207 +816,218 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
         <v>12</v>
-      </c>
-      <c r="E21" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C22" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B23" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="C23" t="s">
         <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B25" t="s">
-        <v>30</v>
-      </c>
-      <c r="C25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="D26" t="s">
         <v>12</v>
-      </c>
-      <c r="E26" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B27" t="s">
+        <v>32</v>
+      </c>
+      <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
+      </c>
+      <c r="E27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
         <v>33</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>13</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D29" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
         <v>8</v>
       </c>
-      <c r="C30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>13</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E31" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B32" t="s">
+      <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
         <v>46</v>
       </c>
-      <c r="C32" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" t="s">
-        <v>12</v>
-      </c>
-      <c r="E32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B33" t="s">
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
         <v>47</v>
       </c>
-      <c r="C33" t="s">
-        <v>26</v>
-      </c>
-      <c r="D33" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B34" t="s">
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
         <v>48</v>
       </c>
-      <c r="C34" t="s">
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39" t="s">
         <v>10</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B37" t="s">
-        <v>50</v>
-      </c>
-      <c r="C37" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B38" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" t="s">
-        <v>10</v>
-      </c>
-      <c r="D38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
         <v>54</v>
       </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40" t="s">
-        <v>5</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B41" t="s">
-        <v>55</v>
-      </c>
-      <c r="C41" t="s">
-        <v>5</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>13</v>
       </c>
     </row>
